--- a/Report/แผนการดำเนินงาน.xlsx
+++ b/Report/แผนการดำเนินงาน.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mook Space\work\college\project1\Analytics_and_Prediction_System_for_CE_Curriculum_administrators\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96F069CE-CCED-4FD9-866C-2A3812AD08CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{494DD683-3D5D-47EE-9630-D37BD1D735DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{155AF00D-16F0-40C0-932E-C14B0AAEEDA4}"/>
   </bookViews>
@@ -170,12 +170,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -190,11 +202,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -202,6 +211,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,380 +529,504 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B5848E-E4D9-4DF6-BFBF-0E68A4CE29EC}">
   <dimension ref="A1:AJ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO10" sqref="AO10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="36" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="2">
         <v>2565</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="1">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2">
         <v>2566</v>
       </c>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3" t="s">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="1" t="s">
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1" t="s">
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1" t="s">
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>15</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>22</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>29</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>12</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>19</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>26</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>3</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>10</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>17</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>24</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>31</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>7</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>14</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>21</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>28</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>5</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>12</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>19</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>26</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="1">
         <v>2</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="1">
         <v>9</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="1">
         <v>16</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="1">
         <v>23</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="1">
         <v>30</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="1">
         <v>6</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="1">
         <v>13</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="1">
         <v>20</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="1">
         <v>27</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="1">
         <v>6</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="1">
         <v>13</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="1">
         <v>20</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:S2"/>
     <mergeCell ref="X2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AJ2"/>
     <mergeCell ref="B1:W1"/>
     <mergeCell ref="X1:AJ1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="P2:S2"/>
     <mergeCell ref="T2:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
